--- a/biology/Zoologie/Charançon_du_lin/Charançon_du_lin.xlsx
+++ b/biology/Zoologie/Charançon_du_lin/Charançon_du_lin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on_du_lin</t>
+          <t>Charançon_du_lin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anagotus fairburni
 Le charançon du lin (Anagotus fairburni, mais également Phaeophanus fairburni ou Phoxoteles fairburni) est un insecte endémique de la Nouvelle-Zélande.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on_du_lin</t>
+          <t>Charançon_du_lin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Observation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le charançon du lin est observé et décrit pour la première fois en 1932 par Albert E. Brookes sur l'île d'Urville, dans les Marlborough Sounds[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le charançon du lin est observé et décrit pour la première fois en 1932 par Albert E. Brookes sur l'île d'Urville, dans les Marlborough Sounds,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on_du_lin</t>
+          <t>Charançon_du_lin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'insecte est initialement présent dans de nombreuses îles des Marlborough Sounds, mais également à l'extrême nord de l'archipel, par exemple dans les îles Poor Knights ou l'île de la Petite Barrière, ainsi qu'à l'extrême sud, dans les îles qui avoisinent l'île Stewart ; il est également présent sur les principales îles, spécialement dans certains massifs montagneux comme celui du mont Stokes[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'insecte est initialement présent dans de nombreuses îles des Marlborough Sounds, mais également à l'extrême nord de l'archipel, par exemple dans les îles Poor Knights ou l'île de la Petite Barrière, ainsi qu'à l'extrême sud, dans les îles qui avoisinent l'île Stewart ; il est également présent sur les principales îles, spécialement dans certains massifs montagneux comme celui du mont Stokes,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charan%C3%A7on_du_lin</t>
+          <t>Charançon_du_lin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les prédateurs naturels de cette espèce sont essentiellement les mammifères invasifs introduits par l'homme dans les écosystèmes constituant son habitat : rats, taupes. Les populations actuelles n'ont survécu que dans les espaces où ces espèces invasives n'ont pas été introduites ou ont été éliminées[3],[5],[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prédateurs naturels de cette espèce sont essentiellement les mammifères invasifs introduits par l'homme dans les écosystèmes constituant son habitat : rats, taupes. Les populations actuelles n'ont survécu que dans les espaces où ces espèces invasives n'ont pas été introduites ou ont été éliminées.
 </t>
         </is>
       </c>
